--- a/public/format/OTCUploadFormat.xlsx
+++ b/public/format/OTCUploadFormat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNA\Downloads\marksretech\05-05-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salon\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sub Category Id</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Product Brand</t>
+  </si>
+  <si>
+    <t>Inventory_type_id/1=Raw/2= Retail Product</t>
   </si>
 </sst>
 </file>
@@ -421,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,11 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
     </row>
   </sheetData>
